--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSW\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -732,7 +731,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +832,18 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1146,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1270,204 +1281,216 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="29" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="26" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="29" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1821,7 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -1885,40 +1908,40 @@
     </row>
     <row r="2" spans="1:69" ht="41.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
@@ -2029,38 +2052,38 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="102" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="54"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
@@ -2104,38 +2127,38 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="64"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="54"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -2186,27 +2209,27 @@
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="65"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
@@ -2227,12 +2250,12 @@
       <c r="AU6" s="33"/>
       <c r="AV6" s="33"/>
       <c r="AW6" s="33"/>
-      <c r="AX6" s="62"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="62"/>
-      <c r="BA6" s="62"/>
-      <c r="BB6" s="62"/>
-      <c r="BC6" s="62"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
       <c r="BD6" s="33"/>
       <c r="BE6" s="33"/>
       <c r="BF6" s="33"/>
@@ -2257,27 +2280,27 @@
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="65"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="55"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
@@ -2298,12 +2321,12 @@
       <c r="AU7" s="33"/>
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
-      <c r="AX7" s="62"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="62"/>
-      <c r="BA7" s="62"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="62"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
       <c r="BD7" s="33"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
@@ -2324,37 +2347,37 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
       <c r="AM8" s="33"/>
       <c r="AN8" s="33"/>
       <c r="AO8" s="33"/>
@@ -2366,12 +2389,12 @@
       <c r="AU8" s="33"/>
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="62"/>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
       <c r="BD8" s="33"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
@@ -2389,82 +2412,82 @@
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G9" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101" t="s">
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101" t="s">
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="100" t="s">
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="100"/>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="100" t="s">
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="AJ9" s="100"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="100"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="100" t="s">
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="100"/>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="100"/>
-      <c r="AV9" s="100"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="96"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="96"/>
+      <c r="AU9" s="96"/>
+      <c r="AV9" s="96"/>
       <c r="AW9" s="33"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
       <c r="BD9" s="33"/>
       <c r="BE9" s="33"/>
       <c r="BF9" s="33"/>
@@ -2482,144 +2505,144 @@
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="69" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="70" t="s">
+      <c r="O10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="70" t="s">
+      <c r="P10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="70" t="s">
+      <c r="R10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="71" t="s">
+      <c r="S10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="71" t="s">
+      <c r="T10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="70" t="s">
+      <c r="U10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="V10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="70" t="s">
+      <c r="W10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="70" t="s">
+      <c r="X10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="70" t="s">
+      <c r="Y10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="Z10" s="71" t="s">
+      <c r="Z10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="70" t="s">
+      <c r="AB10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AC10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AD10" s="70" t="s">
+      <c r="AD10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AE10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="70" t="s">
+      <c r="AF10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="71" t="s">
+      <c r="AG10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AH10" s="71" t="s">
+      <c r="AH10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AI10" s="70" t="s">
+      <c r="AI10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AJ10" s="70" t="s">
+      <c r="AJ10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AK10" s="70" t="s">
+      <c r="AK10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="70" t="s">
+      <c r="AL10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AM10" s="70" t="s">
+      <c r="AM10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AN10" s="71" t="s">
+      <c r="AN10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AO10" s="71" t="s">
+      <c r="AO10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="AP10" s="70" t="s">
+      <c r="AP10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AQ10" s="70" t="s">
+      <c r="AQ10" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AR10" s="70" t="s">
+      <c r="AR10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AS10" s="70" t="s">
+      <c r="AS10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AT10" s="70" t="s">
+      <c r="AT10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AU10" s="71" t="s">
+      <c r="AU10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="AV10" s="72" t="s">
+      <c r="AV10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="62"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
       <c r="BD10" s="33"/>
       <c r="BE10" s="33"/>
       <c r="BF10" s="33"/>
@@ -2637,7 +2660,7 @@
     </row>
     <row r="11" spans="1:69" ht="21" customHeight="1">
       <c r="A11" s="20"/>
-      <c r="B11" s="51">
+      <c r="B11" s="44">
         <v>1</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -2650,16 +2673,16 @@
         <v>45782</v>
       </c>
       <c r="F11" s="29">
-        <f t="shared" ref="F11:F17" si="0">DAYS360(D11,E11)</f>
+        <f t="shared" ref="F11:F16" si="0">DAYS360(D11,E11)</f>
         <v>6</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -2694,8 +2717,8 @@
       <c r="AS11" s="34"/>
       <c r="AT11" s="34"/>
       <c r="AU11" s="34"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="61"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="52"/>
       <c r="AX11" s="33"/>
       <c r="AY11" s="33"/>
       <c r="AZ11" s="33"/>
@@ -2719,25 +2742,29 @@
     </row>
     <row r="12" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A12" s="26"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="28">
+        <v>45776</v>
+      </c>
+      <c r="E12" s="28">
+        <v>45782</v>
+      </c>
       <c r="F12" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
       <c r="N12" s="41"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -2772,7 +2799,7 @@
       <c r="AS12" s="35"/>
       <c r="AT12" s="35"/>
       <c r="AU12" s="35"/>
-      <c r="AV12" s="53"/>
+      <c r="AV12" s="46"/>
       <c r="AW12" s="33"/>
       <c r="AX12" s="33"/>
       <c r="AY12" s="33"/>
@@ -2797,10 +2824,10 @@
     </row>
     <row r="13" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A13" s="26"/>
-      <c r="B13" s="51">
+      <c r="B13" s="44">
         <v>2</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="83" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="28">
@@ -2820,13 +2847,13 @@
       <c r="K13" s="35"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="109"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="92"/>
       <c r="U13" s="35"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
@@ -2854,7 +2881,7 @@
       <c r="AS13" s="35"/>
       <c r="AT13" s="35"/>
       <c r="AU13" s="35"/>
-      <c r="AV13" s="53"/>
+      <c r="AV13" s="46"/>
       <c r="AW13" s="33"/>
       <c r="AX13" s="33"/>
       <c r="AY13" s="33"/>
@@ -2879,17 +2906,21 @@
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="28">
+        <v>45783</v>
+      </c>
+      <c r="E14" s="28">
+        <v>45790</v>
+      </c>
       <c r="F14" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="39"/>
@@ -2898,14 +2929,14 @@
       <c r="K14" s="35"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="35"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="40"/>
@@ -2932,7 +2963,7 @@
       <c r="AS14" s="35"/>
       <c r="AT14" s="35"/>
       <c r="AU14" s="35"/>
-      <c r="AV14" s="53"/>
+      <c r="AV14" s="46"/>
       <c r="AW14" s="33"/>
       <c r="AX14" s="33"/>
       <c r="AY14" s="33"/>
@@ -2957,7 +2988,7 @@
     </row>
     <row r="15" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="26"/>
-      <c r="B15" s="51">
+      <c r="B15" s="44">
         <v>3</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -2987,34 +3018,34 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
       <c r="T15" s="41"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="110"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="108"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="109"/>
-      <c r="AH15" s="109"/>
-      <c r="AI15" s="109"/>
-      <c r="AJ15" s="109"/>
-      <c r="AK15" s="109"/>
-      <c r="AL15" s="109"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="91"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
       <c r="AP15" s="42"/>
       <c r="AQ15" s="42"/>
       <c r="AR15" s="35"/>
       <c r="AS15" s="35"/>
       <c r="AT15" s="35"/>
       <c r="AU15" s="35"/>
-      <c r="AV15" s="53"/>
+      <c r="AV15" s="46"/>
       <c r="AW15" s="33"/>
       <c r="AX15" s="33"/>
       <c r="AY15" s="33"/>
@@ -3039,7 +3070,7 @@
     </row>
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="26"/>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="84" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -3092,7 +3123,7 @@
       <c r="AS16" s="35"/>
       <c r="AT16" s="35"/>
       <c r="AU16" s="35"/>
-      <c r="AV16" s="53"/>
+      <c r="AV16" s="46"/>
       <c r="AW16" s="33"/>
       <c r="AX16" s="33"/>
       <c r="AY16" s="33"/>
@@ -3117,10 +3148,10 @@
     </row>
     <row r="17" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="26"/>
-      <c r="B17" s="97">
+      <c r="B17" s="84">
         <v>4</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="83" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="28">
@@ -3130,7 +3161,7 @@
         <v>45825</v>
       </c>
       <c r="F17" s="29">
-        <f t="shared" ref="F17:F18" si="1">DAYS360(D17,E17)</f>
+        <f t="shared" ref="F17" si="1">DAYS360(D17,E17)</f>
         <v>6</v>
       </c>
       <c r="G17" s="30"/>
@@ -3168,13 +3199,13 @@
       <c r="AM17" s="42"/>
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
-      <c r="AV17" s="112"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="95"/>
       <c r="AW17" s="33"/>
       <c r="AX17" s="33"/>
       <c r="AY17" s="33"/>
@@ -3199,60 +3230,60 @@
     </row>
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="26"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81">
+      <c r="D18" s="64"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68">
         <f>DAYS360(D18,E18)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="58"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="49"/>
+      <c r="AI18" s="49"/>
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="49"/>
+      <c r="AL18" s="49"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="51"/>
       <c r="AW18" s="33"/>
       <c r="AX18" s="33"/>
       <c r="AY18" s="33"/>
@@ -3277,53 +3308,53 @@
     </row>
     <row r="19" spans="1:69" ht="21" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="91"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="91"/>
-      <c r="AD19" s="91"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="91"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="81"/>
+      <c r="AN19" s="81"/>
+      <c r="AO19" s="81"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="81"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
       <c r="AW19" s="33"/>
       <c r="AX19" s="33"/>
       <c r="AY19" s="33"/>
@@ -3348,53 +3379,53 @@
     </row>
     <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="26"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
-      <c r="U20" s="91"/>
-      <c r="V20" s="91"/>
-      <c r="W20" s="91"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="91"/>
-      <c r="AD20" s="91"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="91"/>
-      <c r="AJ20" s="91"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="91"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="80"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
       <c r="AW20" s="33"/>
       <c r="AX20" s="33"/>
       <c r="AY20" s="33"/>
@@ -3419,53 +3450,53 @@
     </row>
     <row r="21" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="26"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="91"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="91"/>
-      <c r="AJ21" s="91"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="91"/>
-      <c r="AM21" s="94"/>
-      <c r="AN21" s="94"/>
-      <c r="AO21" s="94"/>
-      <c r="AP21" s="94"/>
-      <c r="AQ21" s="94"/>
-      <c r="AR21" s="91"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="81"/>
+      <c r="AN21" s="81"/>
+      <c r="AO21" s="81"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="81"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
       <c r="AW21" s="33"/>
       <c r="AX21" s="33"/>
       <c r="AY21" s="33"/>
@@ -3490,53 +3521,53 @@
     </row>
     <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="26"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="94"/>
-      <c r="AO22" s="94"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
       <c r="AW22" s="33"/>
       <c r="AX22" s="33"/>
       <c r="AY22" s="33"/>
@@ -3561,53 +3592,53 @@
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="85"/>
-      <c r="AC23" s="85"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="85"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="85"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="85"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="85"/>
-      <c r="AM23" s="85"/>
-      <c r="AN23" s="85"/>
-      <c r="AO23" s="85"/>
-      <c r="AP23" s="85"/>
-      <c r="AQ23" s="85"/>
-      <c r="AR23" s="85"/>
-      <c r="AS23" s="85"/>
-      <c r="AT23" s="85"/>
-      <c r="AU23" s="85"/>
-      <c r="AV23" s="85"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="72"/>
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
       <c r="AW23" s="33"/>
       <c r="AX23" s="33"/>
       <c r="AY23" s="33"/>
@@ -3632,53 +3663,53 @@
     </row>
     <row r="24" spans="1:69" ht="21" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="91"/>
-      <c r="AD24" s="91"/>
-      <c r="AE24" s="91"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="91"/>
-      <c r="AJ24" s="91"/>
-      <c r="AK24" s="91"/>
-      <c r="AL24" s="91"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="94"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91"/>
-      <c r="AV24" s="91"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="81"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
       <c r="AW24" s="33"/>
       <c r="AX24" s="33"/>
       <c r="AY24" s="33"/>
@@ -3703,53 +3734,53 @@
     </row>
     <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
-      <c r="T25" s="91"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="91"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="91"/>
-      <c r="AD25" s="91"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="91"/>
-      <c r="AJ25" s="91"/>
-      <c r="AK25" s="91"/>
-      <c r="AL25" s="91"/>
-      <c r="AM25" s="94"/>
-      <c r="AN25" s="94"/>
-      <c r="AO25" s="94"/>
-      <c r="AP25" s="94"/>
-      <c r="AQ25" s="94"/>
-      <c r="AR25" s="91"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="81"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="81"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
       <c r="AY25" s="33"/>
@@ -3774,53 +3805,53 @@
     </row>
     <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="91"/>
-      <c r="U26" s="91"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="91"/>
-      <c r="AK26" s="91"/>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="94"/>
-      <c r="AN26" s="94"/>
-      <c r="AO26" s="94"/>
-      <c r="AP26" s="94"/>
-      <c r="AQ26" s="94"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="81"/>
+      <c r="AN26" s="81"/>
+      <c r="AO26" s="81"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="81"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
       <c r="AW26" s="33"/>
       <c r="AX26" s="33"/>
       <c r="AY26" s="33"/>
@@ -3845,53 +3876,53 @@
     </row>
     <row r="27" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="91"/>
-      <c r="U27" s="91"/>
-      <c r="V27" s="91"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="91"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="91"/>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="94"/>
-      <c r="AP27" s="94"/>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="91"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="91"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="81"/>
+      <c r="AN27" s="81"/>
+      <c r="AO27" s="81"/>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="81"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
       <c r="AW27" s="33"/>
       <c r="AX27" s="33"/>
       <c r="AY27" s="33"/>
@@ -3916,53 +3947,53 @@
     </row>
     <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="91"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="91"/>
-      <c r="AJ28" s="91"/>
-      <c r="AK28" s="91"/>
-      <c r="AL28" s="91"/>
-      <c r="AM28" s="94"/>
-      <c r="AN28" s="94"/>
-      <c r="AO28" s="94"/>
-      <c r="AP28" s="94"/>
-      <c r="AQ28" s="94"/>
-      <c r="AR28" s="91"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="81"/>
+      <c r="AN28" s="81"/>
+      <c r="AO28" s="81"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="81"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
       <c r="AY28" s="33"/>
@@ -3987,53 +4018,53 @@
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="91"/>
-      <c r="AD29" s="91"/>
-      <c r="AE29" s="91"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="91"/>
-      <c r="AJ29" s="91"/>
-      <c r="AK29" s="91"/>
-      <c r="AL29" s="91"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="91"/>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="81"/>
+      <c r="AN29" s="81"/>
+      <c r="AO29" s="81"/>
+      <c r="AP29" s="81"/>
+      <c r="AQ29" s="81"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
       <c r="AW29" s="33"/>
       <c r="AX29" s="33"/>
       <c r="AY29" s="33"/>
@@ -4058,53 +4089,53 @@
     </row>
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="26"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="85"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="85"/>
-      <c r="AL30" s="85"/>
-      <c r="AM30" s="85"/>
-      <c r="AN30" s="85"/>
-      <c r="AO30" s="85"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="85"/>
-      <c r="AR30" s="85"/>
-      <c r="AS30" s="85"/>
-      <c r="AT30" s="85"/>
-      <c r="AU30" s="85"/>
-      <c r="AV30" s="85"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="72"/>
+      <c r="AN30" s="72"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
       <c r="AW30" s="33"/>
       <c r="AX30" s="33"/>
       <c r="AY30" s="33"/>
@@ -4129,53 +4160,53 @@
     </row>
     <row r="31" spans="1:69" ht="21" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="91"/>
-      <c r="AJ31" s="91"/>
-      <c r="AK31" s="91"/>
-      <c r="AL31" s="91"/>
-      <c r="AM31" s="94"/>
-      <c r="AN31" s="94"/>
-      <c r="AO31" s="94"/>
-      <c r="AP31" s="94"/>
-      <c r="AQ31" s="94"/>
-      <c r="AR31" s="91"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="81"/>
+      <c r="AP31" s="81"/>
+      <c r="AQ31" s="81"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="78"/>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
       <c r="AY31" s="33"/>
@@ -4200,53 +4231,53 @@
     </row>
     <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="91"/>
-      <c r="AD32" s="91"/>
-      <c r="AE32" s="91"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="91"/>
-      <c r="AJ32" s="91"/>
-      <c r="AK32" s="91"/>
-      <c r="AL32" s="91"/>
-      <c r="AM32" s="94"/>
-      <c r="AN32" s="94"/>
-      <c r="AO32" s="94"/>
-      <c r="AP32" s="94"/>
-      <c r="AQ32" s="94"/>
-      <c r="AR32" s="91"/>
-      <c r="AS32" s="91"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
       <c r="AW32" s="33"/>
       <c r="AX32" s="33"/>
       <c r="AY32" s="33"/>
@@ -4271,53 +4302,53 @@
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="91"/>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="94"/>
-      <c r="AN33" s="94"/>
-      <c r="AO33" s="94"/>
-      <c r="AP33" s="94"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="91"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
       <c r="AW33" s="33"/>
       <c r="AX33" s="33"/>
       <c r="AY33" s="33"/>
@@ -4342,53 +4373,53 @@
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="91"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="91"/>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="91"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="94"/>
-      <c r="AN34" s="94"/>
-      <c r="AO34" s="94"/>
-      <c r="AP34" s="94"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="91"/>
-      <c r="AS34" s="91"/>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="78"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="81"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
       <c r="AY34" s="33"/>
@@ -4682,11 +4713,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AP9:AV9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="AI9:AO9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I4:AB7"/>
@@ -4695,12 +4727,11 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="AP9:AV9"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="AI9:AO9"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="I13">

--- a/간트 차트.xlsx
+++ b/간트 차트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>작업 제목</t>
   </si>
@@ -800,6 +800,191 @@
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정구현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능구현</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현완료</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +994,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1033,8 +1218,41 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF434343"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1347,36 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1433,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,9 +1880,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,11 +1948,29 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1732,23 +1995,38 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="29" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2078,7 +2356,7 @@
   <dimension ref="A1:BQ39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -2165,40 +2443,40 @@
     </row>
     <row r="2" spans="1:69" ht="41.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
@@ -2309,37 +2587,37 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="100" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="98"/>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
       <c r="AC4" s="53"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
@@ -2384,37 +2662,37 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="106"/>
+      <c r="D5" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
       <c r="AC5" s="53"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2466,26 +2744,26 @@
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
       <c r="AC6" s="54"/>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
@@ -2537,26 +2815,26 @@
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="98"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
       <c r="AC7" s="54"/>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
@@ -2669,48 +2947,48 @@
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94" t="s">
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
       <c r="AB9" s="93" t="s">
         <v>6</v>
       </c>
@@ -2764,11 +3042,11 @@
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="58" t="s">
         <v>9</v>
       </c>
@@ -2950,13 +3228,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="30"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="83"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="34"/>
@@ -3019,20 +3297,24 @@
         <v>22</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="28">
+        <v>45776</v>
+      </c>
+      <c r="E12" s="28">
+        <v>45782</v>
+      </c>
       <c r="F12" s="29">
-        <f t="shared" ref="F11:F14" si="1">DAYS360(D12,E12)</f>
-        <v>0</v>
+        <f t="shared" ref="F12:F14" si="1">DAYS360(D12,E12)</f>
+        <v>6</v>
       </c>
       <c r="G12" s="30"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="41"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="112"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
       <c r="Q12" s="35"/>
@@ -3094,7 +3376,7 @@
       <c r="B13" s="44">
         <v>2</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="28">
@@ -3114,13 +3396,13 @@
       <c r="K13" s="35"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="88"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="35"/>
       <c r="W13" s="35"/>
       <c r="X13" s="40"/>
@@ -3172,15 +3454,19 @@
     </row>
     <row r="14" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="28">
+        <v>45783</v>
+      </c>
+      <c r="E14" s="28">
+        <v>45789</v>
+      </c>
       <c r="F14" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="39"/>
@@ -3190,13 +3476,13 @@
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="35"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="113"/>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="40"/>
@@ -3251,8 +3537,8 @@
       <c r="B15" s="44">
         <v>3</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>29</v>
+      <c r="C15" s="79" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="28">
         <v>45790</v>
@@ -3261,7 +3547,7 @@
         <v>45796</v>
       </c>
       <c r="F15" s="29">
-        <f>DAYS360(D15,E15)</f>
+        <f t="shared" ref="F15:F22" si="2">DAYS360(D15,E15)</f>
         <v>6</v>
       </c>
       <c r="G15" s="30"/>
@@ -3278,13 +3564,13 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
       <c r="T15" s="41"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="89"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="88"/>
       <c r="AC15" s="41"/>
       <c r="AD15" s="41"/>
       <c r="AE15" s="41"/>
@@ -3329,14 +3615,13 @@
     </row>
     <row r="16" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="26"/>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="29">
-        <f>DAYS360(D16,E16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="30"/>
@@ -3354,13 +3639,13 @@
       <c r="S16" s="41"/>
       <c r="T16" s="41"/>
       <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="114"/>
       <c r="AC16" s="35"/>
       <c r="AD16" s="41"/>
       <c r="AE16" s="41"/>
@@ -3408,8 +3693,8 @@
       <c r="B17" s="44">
         <v>3</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>30</v>
+      <c r="C17" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="28">
         <v>45797</v>
@@ -3418,7 +3703,7 @@
         <v>45803</v>
       </c>
       <c r="F17" s="29">
-        <f>DAYS360(D17,E17)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G17" s="30"/>
@@ -3442,13 +3727,13 @@
       <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="90"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="89"/>
       <c r="AJ17" s="35"/>
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
@@ -3486,14 +3771,14 @@
     </row>
     <row r="18" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="26"/>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="80"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29">
-        <f>DAYS360(D18,E18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="30"/>
@@ -3518,13 +3803,13 @@
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="35"/>
-      <c r="AH18" s="35"/>
-      <c r="AI18" s="35"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="111"/>
+      <c r="AF18" s="111"/>
+      <c r="AG18" s="111"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
       <c r="AJ18" s="35"/>
       <c r="AK18" s="35"/>
       <c r="AL18" s="35"/>
@@ -3575,7 +3860,7 @@
         <v>45810</v>
       </c>
       <c r="F19" s="29">
-        <f>DAYS360(D19,E19)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G19" s="30"/>
@@ -3600,13 +3885,13 @@
       <c r="Z19" s="40"/>
       <c r="AA19" s="40"/>
       <c r="AI19" s="35"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="88"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="89"/>
-      <c r="AP19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
       <c r="AQ19" s="42"/>
       <c r="AR19" s="35"/>
       <c r="AS19" s="35"/>
@@ -3637,14 +3922,14 @@
     </row>
     <row r="20" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="26"/>
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29">
-        <f>DAYS360(D20,E20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="30"/>
@@ -3726,7 +4011,7 @@
         <v>45817</v>
       </c>
       <c r="F21" s="29">
-        <f>DAYS360(D21,E21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G21" s="30"/>
@@ -3758,13 +4043,13 @@
       <c r="AG21" s="35"/>
       <c r="AH21" s="35"/>
       <c r="AP21" s="42"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
+      <c r="AQ21" s="88"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="88"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
       <c r="AX21" s="42"/>
       <c r="AY21" s="35"/>
       <c r="AZ21" s="35"/>
@@ -3788,14 +4073,14 @@
     </row>
     <row r="22" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="26"/>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29">
-        <f>DAYS360(D22,E22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="30"/>
@@ -3864,10 +4149,10 @@
     </row>
     <row r="23" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A23" s="26"/>
-      <c r="B23" s="81">
+      <c r="B23" s="80">
         <v>4</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="28">
@@ -3877,7 +4162,7 @@
         <v>45824</v>
       </c>
       <c r="F23" s="29">
-        <f t="shared" ref="F23" si="2">DAYS360(D23,E23)</f>
+        <f t="shared" ref="F23" si="3">DAYS360(D23,E23)</f>
         <v>6</v>
       </c>
       <c r="G23" s="30"/>
@@ -3923,12 +4208,12 @@
       <c r="AU23" s="35"/>
       <c r="AV23" s="42"/>
       <c r="AW23" s="42"/>
-      <c r="AX23" s="91"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="89"/>
-      <c r="BA23" s="89"/>
-      <c r="BB23" s="89"/>
-      <c r="BC23" s="92"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="88"/>
+      <c r="AZ23" s="88"/>
+      <c r="BA23" s="88"/>
+      <c r="BB23" s="88"/>
+      <c r="BC23" s="91"/>
       <c r="BD23" s="33"/>
       <c r="BE23" s="33"/>
       <c r="BF23" s="33"/>
@@ -3946,10 +4231,10 @@
     </row>
     <row r="24" spans="1:69" ht="21" customHeight="1">
       <c r="A24" s="20"/>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="63"/>
       <c r="E24" s="66"/>
       <c r="F24" s="67">
@@ -4020,55 +4305,57 @@
       <c r="BP24" s="33"/>
       <c r="BQ24" s="20"/>
     </row>
-    <row r="25" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:69" ht="35.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="26"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="116"/>
       <c r="E25" s="64"/>
       <c r="F25" s="65"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
       <c r="AW25" s="33"/>
       <c r="AX25" s="33"/>
       <c r="AY25" s="33"/>
@@ -4093,53 +4380,53 @@
     </row>
     <row r="26" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="64"/>
       <c r="F26" s="65"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="78"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="77"/>
-      <c r="AK26" s="77"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
-      <c r="AP26" s="79"/>
-      <c r="AQ26" s="79"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="77"/>
-      <c r="AT26" s="77"/>
-      <c r="AU26" s="77"/>
-      <c r="AV26" s="77"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
       <c r="AW26" s="33"/>
       <c r="AX26" s="33"/>
       <c r="AY26" s="33"/>
@@ -4162,55 +4449,57 @@
       <c r="BP26" s="33"/>
       <c r="BQ26" s="26"/>
     </row>
-    <row r="27" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:69" ht="30.75" customHeight="1" outlineLevel="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="118"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="65"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="77"/>
-      <c r="AK27" s="77"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="79"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="79"/>
-      <c r="AP27" s="79"/>
-      <c r="AQ27" s="79"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="77"/>
-      <c r="AV27" s="77"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
       <c r="AW27" s="33"/>
       <c r="AX27" s="33"/>
       <c r="AY27" s="33"/>
@@ -4233,55 +4522,52 @@
       <c r="BP27" s="33"/>
       <c r="BQ27" s="26"/>
     </row>
-    <row r="28" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:69" ht="36" customHeight="1" outlineLevel="1">
       <c r="A28" s="26"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
+      <c r="B28" s="73"/>
       <c r="F28" s="65"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="78"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="77"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="77"/>
-      <c r="AK28" s="77"/>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="79"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="79"/>
-      <c r="AP28" s="79"/>
-      <c r="AQ28" s="79"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="77"/>
-      <c r="AV28" s="77"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
       <c r="AW28" s="33"/>
       <c r="AX28" s="33"/>
       <c r="AY28" s="33"/>
@@ -4306,53 +4592,50 @@
     </row>
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="B29" s="73"/>
       <c r="F29" s="65"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="78"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="77"/>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="77"/>
-      <c r="AK29" s="77"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="79"/>
-      <c r="AP29" s="79"/>
-      <c r="AQ29" s="79"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77"/>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="77"/>
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="77"/>
+      <c r="AB29" s="77"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
       <c r="AW29" s="33"/>
       <c r="AX29" s="33"/>
       <c r="AY29" s="33"/>
@@ -4375,55 +4658,52 @@
       <c r="BP29" s="33"/>
       <c r="BQ29" s="26"/>
     </row>
-    <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:69" ht="48" customHeight="1" outlineLevel="1">
       <c r="A30" s="26"/>
       <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="71"/>
-      <c r="AL30" s="71"/>
-      <c r="AM30" s="71"/>
-      <c r="AN30" s="71"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="71"/>
-      <c r="AQ30" s="71"/>
-      <c r="AR30" s="71"/>
-      <c r="AS30" s="71"/>
-      <c r="AT30" s="71"/>
-      <c r="AU30" s="71"/>
-      <c r="AV30" s="71"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+      <c r="R30" s="70"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="70"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AG30" s="70"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="70"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="70"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="70"/>
+      <c r="AN30" s="70"/>
+      <c r="AO30" s="70"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="70"/>
+      <c r="AR30" s="70"/>
+      <c r="AS30" s="70"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="70"/>
+      <c r="AV30" s="70"/>
       <c r="AW30" s="33"/>
       <c r="AX30" s="33"/>
       <c r="AY30" s="33"/>
@@ -4448,53 +4728,53 @@
     </row>
     <row r="31" spans="1:69" ht="21" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="64"/>
       <c r="F31" s="65"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="79"/>
-      <c r="AP31" s="79"/>
-      <c r="AQ31" s="79"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="78"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
       <c r="AW31" s="33"/>
       <c r="AX31" s="33"/>
       <c r="AY31" s="33"/>
@@ -4519,53 +4799,53 @@
     </row>
     <row r="32" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="74"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="62"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
       <c r="F32" s="65"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="77"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="79"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="79"/>
-      <c r="AP32" s="79"/>
-      <c r="AQ32" s="79"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="76"/>
       <c r="AW32" s="33"/>
       <c r="AX32" s="33"/>
       <c r="AY32" s="33"/>
@@ -4590,53 +4870,53 @@
     </row>
     <row r="33" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="74"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="62"/>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
       <c r="F33" s="65"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="77"/>
-      <c r="AU33" s="77"/>
-      <c r="AV33" s="77"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
       <c r="AW33" s="33"/>
       <c r="AX33" s="33"/>
       <c r="AY33" s="33"/>
@@ -4661,53 +4941,53 @@
     </row>
     <row r="34" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="26"/>
-      <c r="B34" s="74"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="62"/>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
       <c r="F34" s="65"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="78"/>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="77"/>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="77"/>
-      <c r="AG34" s="77"/>
-      <c r="AH34" s="77"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="79"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="79"/>
-      <c r="AP34" s="79"/>
-      <c r="AQ34" s="79"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="76"/>
+      <c r="AJ34" s="76"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="78"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="78"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="76"/>
+      <c r="AV34" s="76"/>
       <c r="AW34" s="33"/>
       <c r="AX34" s="33"/>
       <c r="AY34" s="33"/>
@@ -5001,11 +5281,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="AW9:BC9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="I2:N2"/>
@@ -5016,10 +5291,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="AP9:AV9"/>
     <mergeCell ref="N9:T9"/>
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="AW9:BC9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="AP9:AV9"/>
     <mergeCell ref="AI9:AO9"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
